--- a/automation/sar_geschaeftsberichte/OGD-Metadaten_Geschaeftsberichte.xlsx
+++ b/automation/sar_geschaeftsberichte/OGD-Metadaten_Geschaeftsberichte.xlsx
@@ -1023,40 +1023,6 @@
     <t>Name der Datei im Archivkatalog</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;![CDATA[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="3" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Seit 1859 legt der Stadtrat mit dem jährlich erscheinenden Geschäftsbericht der Gemeinde Rechenschaft über seine Tätigkeit ab.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]]&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>Archivische Verzeichnung</t>
   </si>
   <si>
@@ -1066,46 +1032,16 @@
     <t>geschaeftsbericht, stadtrat, archiv, archivdaten, geschichte, glam, openglam</t>
   </si>
   <si>
-    <t>&lt;![CDATA[
-Die Geschäftsberichte liegen als PDF vor und lassen sich Durchsuchen. Der Text wurde mittels OCR («Optical Character Recognition») extrahiert und ist in der Datei hinterlegt.
-]]&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;![CDATA[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="3" tint="-0.249977111117893"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Die [Geschäftsberichte](https://www.stadt-zuerich.ch/geschaeftsbericht) sind auch auf der Webseite der Stadt Zürich verfügbar. Dort können alle Geschäftsberichte im Volltext durchsucht werden.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]]&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>Stadtarchiv Zürich, Präsidialdepartement</t>
+  </si>
+  <si>
+    <t>Die Geschäftsberichte liegen als PDF vor und lassen sich Durchsuchen. Der Text wurde mittels OCR («Optical Character Recognition») extrahiert und ist in der Datei hinterlegt.</t>
+  </si>
+  <si>
+    <t>Seit 1859 legt der Stadtrat mit dem jährlich erscheinenden Geschäftsbericht der Gemeinde Rechenschaft über seine Tätigkeit ab.</t>
+  </si>
+  <si>
+    <t>Die [Geschäftsberichte](https://www.stadt-zuerich.ch/geschaeftsbericht) sind auch auf der Webseite der Stadt Zürich verfügbar. Dort können alle Geschäftsberichte im Volltext durchsucht werden.</t>
   </si>
 </sst>
 </file>
@@ -1827,7 +1763,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1883,7 +1819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>54</v>
       </c>
@@ -1894,7 +1830,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
@@ -1964,7 +1900,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8" t="s">
@@ -1982,7 +1918,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
@@ -2000,14 +1936,14 @@
         <v>14</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="62.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>34</v>
       </c>
@@ -2104,7 +2040,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
@@ -2177,7 +2113,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="62.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>51</v>
       </c>
@@ -2185,7 +2121,7 @@
         <v>60</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="7"/>
@@ -2265,7 +2201,7 @@
         <v>177</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="4" t="s">
@@ -3120,21 +3056,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CBAF0EEED2F5B4AB4463B97C2AD2B71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d2bc9691d179cb44d4ba77bdf8fcfb4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c4a6dd5ef775a5269b08f7de37f93f">
     <xsd:element name="properties">
@@ -3248,10 +3169,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3272,17 +3216,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/automation/sar_geschaeftsberichte/OGD-Metadaten_Geschaeftsberichte.xlsx
+++ b/automation/sar_geschaeftsberichte/OGD-Metadaten_Geschaeftsberichte.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\dev\opendatazurich.github.io\automation\sar_geschaeftsberichte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sszgua\Python\git\opendatazurich.github.io\automation\sar_geschaeftsberichte\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680DBB7A-6C49-40FA-B10A-FF2906C31FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="-50" windowWidth="21230" windowHeight="12540"/>
+    <workbookView xWindow="-30060" yWindow="-7275" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="14" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="213">
   <si>
     <t>Erstmalige Veröffentlichung</t>
   </si>
@@ -978,9 +979,6 @@
     <t>Stadt Zürich</t>
   </si>
   <si>
-    <t>Politik, Verwaltung</t>
-  </si>
-  <si>
     <t>Geschäftsberichte des Stadtrats, ab 1859</t>
   </si>
   <si>
@@ -1042,22 +1040,91 @@
   </si>
   <si>
     <t>Die [Geschäftsberichte](https://www.stadt-zuerich.ch/geschaeftsbericht) sind auch auf der Webseite der Stadt Zürich verfügbar. Dort können alle Geschäftsberichte im Volltext durchsucht werden.</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>arbeit-und-erwerb</t>
+  </si>
+  <si>
+    <t>basiskarten,</t>
+  </si>
+  <si>
+    <t>bauen-und-wohnen</t>
+  </si>
+  <si>
+    <t>bevolkerung</t>
+  </si>
+  <si>
+    <t>bildung</t>
+  </si>
+  <si>
+    <t>energie</t>
+  </si>
+  <si>
+    <t>finanzen</t>
+  </si>
+  <si>
+    <t>freizeit</t>
+  </si>
+  <si>
+    <t>gesundheit</t>
+  </si>
+  <si>
+    <t>kriminalitat</t>
+  </si>
+  <si>
+    <t>kultur</t>
+  </si>
+  <si>
+    <t>mobilitat</t>
+  </si>
+  <si>
+    <t>politik</t>
+  </si>
+  <si>
+    <t>preise</t>
+  </si>
+  <si>
+    <t>soziales</t>
+  </si>
+  <si>
+    <t>tourismus</t>
+  </si>
+  <si>
+    <t>umwelt</t>
+  </si>
+  <si>
+    <t>verwaltung</t>
+  </si>
+  <si>
+    <t>volkswirtschaft</t>
+  </si>
+  <si>
+    <t>politik, verwaltung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1397,22 +1464,19 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1427,98 +1491,104 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="9" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
-    <cellStyle name="Standard 3" xfId="2"/>
-    <cellStyle name="Standard 4" xfId="3"/>
-    <cellStyle name="Standard 5" xfId="4"/>
-    <cellStyle name="Standard 6" xfId="5"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Standard 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Standard 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Standard 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Standard 6" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1759,26 +1829,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.08203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="14.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="66.9140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="53.58203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="88.9140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="50.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="53.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="88.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="50.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="255.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
@@ -1801,7 +1871,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
@@ -1812,14 +1882,14 @@
         <v>14</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>54</v>
       </c>
@@ -1830,14 +1900,14 @@
         <v>14</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
@@ -1848,14 +1918,14 @@
         <v>14</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>23</v>
       </c>
@@ -1871,7 +1941,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
@@ -1889,7 +1959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>31</v>
       </c>
@@ -1900,14 +1970,14 @@
         <v>14</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>32</v>
       </c>
@@ -1918,14 +1988,14 @@
         <v>14</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>33</v>
       </c>
@@ -1936,14 +2006,14 @@
         <v>14</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>34</v>
       </c>
@@ -1954,14 +2024,14 @@
         <v>15</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>35</v>
       </c>
@@ -1977,7 +2047,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>36</v>
       </c>
@@ -1993,7 +2063,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>38</v>
       </c>
@@ -2011,7 +2081,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
@@ -2022,14 +2092,14 @@
         <v>14</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>49</v>
       </c>
@@ -2040,14 +2110,14 @@
         <v>14</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>52</v>
       </c>
@@ -2065,7 +2135,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>131</v>
       </c>
@@ -2083,14 +2153,14 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="3"/>
       <c r="C18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>37</v>
       </c>
@@ -2103,7 +2173,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" s="13" t="s">
         <v>11</v>
       </c>
@@ -2113,7 +2183,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>51</v>
       </c>
@@ -2121,7 +2191,7 @@
         <v>60</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="7"/>
@@ -2129,7 +2199,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="43" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.2">
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="1"/>
@@ -2138,19 +2208,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="1"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="1"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2158,7 +2228,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
@@ -2174,7 +2244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="13" t="s">
         <v>26</v>
@@ -2190,25 +2260,25 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>30</v>
       </c>
@@ -2226,40 +2296,40 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>30</v>
       </c>
@@ -2267,29 +2337,29 @@
         <v>159</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C33" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>183</v>
-      </c>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>30</v>
       </c>
@@ -2298,7 +2368,7 @@
       <c r="D34" s="22"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>30</v>
       </c>
@@ -2307,7 +2377,7 @@
       <c r="D35" s="22"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>30</v>
       </c>
@@ -2316,7 +2386,7 @@
       <c r="D36" s="22"/>
       <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>30</v>
       </c>
@@ -2325,7 +2395,7 @@
       <c r="D37" s="22"/>
       <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>30</v>
       </c>
@@ -2334,7 +2404,7 @@
       <c r="D38" s="22"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -2343,7 +2413,7 @@
       <c r="D39" s="22"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>30</v>
       </c>
@@ -2352,7 +2422,7 @@
       <c r="D40" s="22"/>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:6" s="4" customFormat="1" ht="12.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>30</v>
       </c>
@@ -2361,28 +2431,28 @@
       <c r="D41" s="22"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="3" t="s">
         <v>167</v>
@@ -2391,14 +2461,14 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:6" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>158</v>
       </c>
@@ -2412,7 +2482,7 @@
       <c r="E47" s="6"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" ht="25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B48" s="13" t="s">
         <v>159</v>
       </c>
@@ -2425,7 +2495,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>161</v>
       </c>
@@ -2439,7 +2509,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>161</v>
       </c>
@@ -2453,7 +2523,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -2467,145 +2537,205 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B1" sqref="B1:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.4140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.58203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.9140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.4140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.4140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.9140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.58203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.4140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.58203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.9140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="25" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="11" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="37" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" s="37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A24" r:id="rId1" location="metadata"/>
+    <hyperlink ref="A24" r:id="rId1" location="metadata" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2613,21 +2743,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="5.58203125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="25" customWidth="1"/>
     <col min="3" max="16384" width="11" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>72</v>
       </c>
@@ -2635,27 +2765,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>73</v>
       </c>
@@ -2663,19 +2793,19 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1" location="metadata"/>
+    <hyperlink ref="A11" r:id="rId1" location="metadata" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2683,21 +2813,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.4140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1640625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="35.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="25" customWidth="1"/>
     <col min="3" max="16384" width="11" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>72</v>
       </c>
@@ -2705,123 +2835,123 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
     </row>
-    <row r="19" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
     </row>
-    <row r="23" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
     </row>
-    <row r="24" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
     </row>
-    <row r="25" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
     </row>
-    <row r="26" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
     </row>
-    <row r="27" spans="1:1" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1" location="metadata"/>
+    <hyperlink ref="A21" r:id="rId1" location="metadata" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2829,22 +2959,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="5.4140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="58.58203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="58.625" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>72</v>
       </c>
@@ -2855,7 +2985,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>89</v>
       </c>
@@ -2867,7 +2997,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>90</v>
       </c>
@@ -2879,7 +3009,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>91</v>
       </c>
@@ -2891,7 +3021,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>92</v>
       </c>
@@ -2903,7 +3033,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>93</v>
       </c>
@@ -2915,7 +3045,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>94</v>
       </c>
@@ -2927,7 +3057,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>95</v>
       </c>
@@ -2939,7 +3069,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
         <v>96</v>
       </c>
@@ -2951,7 +3081,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
         <v>97</v>
       </c>
@@ -2963,7 +3093,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
         <v>98</v>
       </c>
@@ -2975,7 +3105,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
         <v>99</v>
       </c>
@@ -2987,7 +3117,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
         <v>100</v>
       </c>
@@ -2999,7 +3129,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
         <v>101</v>
       </c>
@@ -3011,7 +3141,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
         <v>102</v>
       </c>
@@ -3023,7 +3153,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>103</v>
       </c>
@@ -3035,12 +3165,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
         <v>130</v>
       </c>
@@ -3048,7 +3178,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A22" r:id="rId1" location="metadata"/>
+    <hyperlink ref="A22" r:id="rId1" location="metadata" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3170,18 +3300,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3201,6 +3331,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3213,12 +3351,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/automation/sar_geschaeftsberichte/OGD-Metadaten_Geschaeftsberichte.xlsx
+++ b/automation/sar_geschaeftsberichte/OGD-Metadaten_Geschaeftsberichte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sszgua\Python\git\opendatazurich.github.io\automation\sar_geschaeftsberichte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680DBB7A-6C49-40FA-B10A-FF2906C31FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D03BB3-ADB0-4EC0-AE7B-C2B1CDE5C5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30060" yWindow="-7275" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="5025" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="14" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="212">
   <si>
     <t>Erstmalige Veröffentlichung</t>
   </si>
@@ -265,9 +265,6 @@
       </rPr>
       <t xml:space="preserve"> zeitreihe (falls es eine ist).</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Hinweis: </t>
   </si>
   <si>
     <t>alle 4 Jahre</t>
@@ -982,9 +979,6 @@
     <t>Geschäftsberichte des Stadtrats, ab 1859</t>
   </si>
   <si>
-    <t>jährlich</t>
-  </si>
-  <si>
     <t>signatur</t>
   </si>
   <si>
@@ -1103,6 +1097,9 @@
   </si>
   <si>
     <t>politik, verwaltung</t>
+  </si>
+  <si>
+    <t>Hinweis:</t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1830,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="255.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1868,7 +1865,7 @@
         <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1882,7 +1879,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
@@ -1900,7 +1897,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
@@ -1918,11 +1915,11 @@
         <v>14</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1952,7 +1949,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="8" t="s">
@@ -1970,7 +1967,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="8" t="s">
@@ -1988,7 +1985,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8" t="s">
@@ -2006,7 +2003,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
@@ -2024,7 +2021,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
@@ -2044,7 +2041,7 @@
       <c r="D11" s="20"/>
       <c r="E11" s="9"/>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2060,7 +2057,7 @@
       <c r="D12" s="20"/>
       <c r="E12" s="9"/>
       <c r="F12" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2074,11 +2071,11 @@
         <v>14</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2092,11 +2089,11 @@
         <v>14</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -2110,7 +2107,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
@@ -2137,20 +2134,20 @@
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2188,15 +2185,15 @@
         <v>51</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>60</v>
+        <v>211</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="7"/>
       <c r="F21" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="43.5" x14ac:dyDescent="0.2">
@@ -2205,7 +2202,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="7"/>
       <c r="F22" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -2265,17 +2262,17 @@
         <v>30</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2293,7 +2290,7 @@
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2301,17 +2298,17 @@
         <v>30</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2319,13 +2316,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E31" s="7"/>
     </row>
@@ -2334,13 +2331,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E32" s="7"/>
     </row>
@@ -2349,83 +2346,67 @@
         <v>30</v>
       </c>
       <c r="B33" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>181</v>
-      </c>
       <c r="D33" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A34" s="11"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A35" s="11"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A36" s="11"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A37" s="11"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A38" s="11"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A39" s="11"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A40" s="11"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>30</v>
-      </c>
+      <c r="A41" s="11"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
@@ -2455,7 +2436,7 @@
     <row r="45" spans="1:6" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="7"/>
@@ -2470,10 +2451,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>15</v>
@@ -2484,7 +2465,7 @@
     </row>
     <row r="48" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B48" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>54</v>
@@ -2492,18 +2473,18 @@
       <c r="D48" s="13"/>
       <c r="E48" s="7"/>
       <c r="F48" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>163</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="7"/>
@@ -2511,13 +2492,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>165</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="7"/>
@@ -2565,172 +2546,172 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2759,15 +2740,15 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -2777,30 +2758,30 @@
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>73</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2829,90 +2810,90 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -2923,12 +2904,12 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -2976,203 +2957,203 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>105</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>108</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>110</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>112</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>114</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>116</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>118</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>123</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>125</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="27"/>
     </row>
@@ -3186,6 +3167,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CBAF0EEED2F5B4AB4463B97C2AD2B71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d2bc9691d179cb44d4ba77bdf8fcfb4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c4a6dd5ef775a5269b08f7de37f93f">
     <xsd:element name="properties">
@@ -3299,22 +3295,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3328,27 +3332,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B3AD83-9986-4E71-995F-A94C1CED6EB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/automation/sar_geschaeftsberichte/OGD-Metadaten_Geschaeftsberichte.xlsx
+++ b/automation/sar_geschaeftsberichte/OGD-Metadaten_Geschaeftsberichte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sszgua\Python\git\opendatazurich.github.io\automation\sar_geschaeftsberichte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D03BB3-ADB0-4EC0-AE7B-C2B1CDE5C5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C383753-E978-4858-B69E-E7F4E5F9FDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5985" yWindow="5025" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2038,7 +2038,9 @@
       <c r="C11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="20">
+        <v>44090</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="7" t="s">
         <v>131</v>
@@ -3167,21 +3169,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008CBAF0EEED2F5B4AB4463B97C2AD2B71" ma:contentTypeVersion="0" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d2bc9691d179cb44d4ba77bdf8fcfb4a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66c4a6dd5ef775a5269b08f7de37f93f">
     <xsd:element name="properties">
@@ -3295,17 +3282,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3319,17 +3322,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F33FC2A8-E9AF-48AF-8CDC-2C0CCE48C45D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6056489-A7A4-4445-AFC5-87E5586E5E93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>